--- a/appinfo.xlsx
+++ b/appinfo.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:AZ4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,110 +445,255 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>descriptionHTML</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>summary</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>summaryHTML</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>installs</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>minInstalls</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>score</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>ratings</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>reviews</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>histogram</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>price</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>free</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>currency</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>sale</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>saleTime</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>originalPrice</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>saleText</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>offersIAP</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>inAppProductPrice</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>size</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>androidVersion</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>androidVersionText</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>developer</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>developerId</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>developerEmail</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>developerWebsite</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>developerAddress</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>privacyPolicy</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>developerInternalID</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>genre</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>genreId</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>icon</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>headerImage</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>screenshots</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>video</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>videoImage</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>contentRating</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>contentRatingDescription</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>adSupported</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>containsAds</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>released</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>updated</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>version</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>recentChanges</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>recentChangesHTML</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>editorsChoice</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>similarApps</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>moreByDeveloper</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>appId</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>cules la</t>
         </is>
@@ -562,198 +707,688 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Destinația ta preferată de shopping, unde bunul gust se întâlnește cu bunul simt. 
+Cele mai noi tendințe și cele mai noi colecții sunt la un tap distanță - descoperă un magazin online cu o varietate impresionantă de produse și branduri de modă, frumusețe și casă, disponibile oriunde și oricând.
+Descarcă aplicația Fashion Days și: 
+• nu ratezi niciodată ofertele: vei primi alerte în timp real despre lansări de colecții noi și promoții speciale;
+• ai mereu imagini de înaltă calitate, full screen și video 360°, pentru că fiecare detaliu contează atunci când alegi un produs;
+• poți filtra opțiunile nelimitate pe care ți le pregătim: vezi doar un brand, o categorie de produse, dimensiune, preț sau culoare; 
+• plătești cu un singur pas: ai opțiunea de plata cu card de credit, securizat și ușor de salvat în contul tău astfel încât să poți face cumpărături cu un singur tap;
+• îți poți salva oricând produsele dorite în secțiunea Favorite și le poți urmări disponibilitatea și prețul;
+• ai acces extra rapid la orice informație din Contul tău (setări, comenzi, carduri, adrese, easybox, vouchere și multe altele);
+• primești notificări instant despre cele mai recente versiuni ale aplicației.
+De peste 10 ani, Fashion Days este destinatia online ce oferă experiențe nelimitate de fashion celor peste 1.500.000 de clienți din România, Bulgaria și Ungaria. Este locul în care gasesti oricand și de oriunde articole vestimentare, incaltaminte și accesorii pentru femei, bărbați și copii de la o mulțime de branduri precum Calvin Klein, Converse, Diesel, Esprit, Fossil, GAP, Guess, Karl Lagerfeld, Liu Jo, Love Moschino, Mango, New Balance, Nike, Pepe Jeans London, Puma, Skechers, Tommy Hilfiger, U.S. Polo Assn., UGG, Under Armour, Ted Baker, Gant, Emporio Armani, Furla, Timberland, Napapijri si multe altele. 
+Feedback-ul tău este important pentru noi, așa ca am fi mai mult decat fericiti sa aflăm despre experiența ta de shopping cu aplicația Fashion Days. Un e-mail cu sugestiile tale va fi foarte apreciat, te rugăm scrie-ne pe adresa info@fashiondays.ro.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Destinația ta preferată de shopping, unde bunul gust se întâlnește cu bunul simt. &lt;br&gt;&lt;br&gt;Cele mai noi tendințe și cele mai noi colecții sunt la un tap distanță - descoperă un magazin online cu o varietate impresionantă de produse și branduri de modă, frumusețe și casă, disponibile oriunde și oricând.&lt;br&gt;&lt;br&gt;Descarcă aplicația Fashion Days și: &lt;br&gt;• nu ratezi niciodată ofertele: vei primi alerte în timp real despre lansări de colecții noi și promoții speciale;&lt;br&gt;• ai mereu imagini de înaltă calitate, full screen și video 360°, pentru că fiecare detaliu contează atunci când alegi un produs;&lt;br&gt;• poți filtra opțiunile nelimitate pe care ți le pregătim: vezi doar un brand, o categorie de produse, dimensiune, preț sau culoare; &lt;br&gt;• plătești cu un singur pas: ai opțiunea de plata cu card de credit, securizat și ușor de salvat în contul tău astfel încât să poți face cumpărături cu un singur tap;&lt;br&gt;• îți poți salva oricând produsele dorite în secțiunea Favorite și le poți urmări disponibilitatea și prețul;&lt;br&gt;• ai acces extra rapid la orice informație din Contul tău (setări, comenzi, carduri, adrese, easybox, vouchere și multe altele);&lt;br&gt;• primești notificări instant despre cele mai recente versiuni ale aplicației.&lt;br&gt;&lt;br&gt;De peste 10 ani, Fashion Days este destinatia online ce oferă experiențe nelimitate de fashion celor peste 1.500.000 de clienți din România, Bulgaria și Ungaria. Este locul în care gasesti oricand și de oriunde articole vestimentare, incaltaminte și accesorii pentru femei, bărbați și copii de la o mulțime de branduri precum Calvin Klein, Converse, Diesel, Esprit, Fossil, GAP, Guess, Karl Lagerfeld, Liu Jo, Love Moschino, Mango, New Balance, Nike, Pepe Jeans London, Puma, Skechers, Tommy Hilfiger, U.S. Polo Assn., UGG, Under Armour, Ted Baker, Gant, Emporio Armani, Furla, Timberland, Napapijri si multe altele. &lt;br&gt;&lt;br&gt;Feedback-ul tău este important pentru noi, așa ca am fi mai mult decat fericiti sa aflăm despre experiența ta de shopping cu aplicația Fashion Days. Un e-mail cu sugestiile tale va fi foarte apreciat, te rugăm scrie-ne pe adresa info@fashiondays.ro.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Descarcă aplicația pentru colecții și branduri de modă, beauty și casă.</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Descarcă aplicația pentru colecții și branduri de modă, beauty și casă.</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>1.000.000+</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="G2" t="n">
         <v>1000000</v>
       </c>
-      <c r="D2" t="n">
-        <v>4.888254</v>
-      </c>
-      <c r="E2" t="n">
-        <v>106111</v>
-      </c>
-      <c r="F2" t="n">
-        <v>14199</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>[948, 117, 710, 6284, 98052]</t>
-        </is>
-      </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="b">
+        <v>4.882027</v>
+      </c>
+      <c r="I2" t="n">
+        <v>107591</v>
+      </c>
+      <c r="J2" t="n">
+        <v>14412</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>[1150, 144, 700, 6246, 99351]</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
         <v>1</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>RON</t>
         </is>
       </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="inlineStr">
+      <c r="O2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="b">
+        <v>0</v>
+      </c>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr">
         <is>
           <t>8,4M</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>5.0</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>5.0 sau o versiune ulterioară</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Fashion Days</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>4661858929332099976</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>mobile@fashiondays.com</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>http://www.fashiondays.com</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>Swan Office Park, Windsor Building,
 Sos. Bucureşti Nord, Nr. 15-23, Et. 2,
 077190, Voluntari, Ilfov</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>https://www.fashiondays.ro/page/terms/privacy-policy/</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>4661858929332099976</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
         <is>
           <t>Cumpărături</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>SHOPPING</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/aI0-1xVdgHFCpRT5wpB8tgHOyCP5H04secaHhjjstSnvFrg1zDujMqovgIVVdXp4pw</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/NB_k-LTUw5DZDE26bIxEwR9R9nvn14pS4eqePOVza-VydcH0T8g8lvKkOg_lAbhQqQ</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>['https://play-lh.googleusercontent.com/lLI_DoSYEZclWuH2XOlYSbeSbnh1WU4ygCSgj8G1wMQO0F2BhxHA0WCB7bnqjPNvNkke', 'https://play-lh.googleusercontent.com/ta-ikqnB9pIaRYz6F7Xn9y4FbkhtJEwvMsz8ErMwBgWbJ0S3vmlKWx8rFEDkIO-EJQM', 'https://play-lh.googleusercontent.com/kn3muwgaCRofzW2pXBHaGrVwxYaEGSBJYI0keH77T2JB5_eN_wtj2t9FihhVsOsl2w', 'https://play-lh.googleusercontent.com/1x-vlzfUVpbdP7CxaSVDT5b7ah9TILK12K1e0ynQjpHbZeSWGAYUd77RyILxRBpf-9E', 'https://play-lh.googleusercontent.com/LmtaD-jMNaHLKhDhMcEIm_ZpXCbTzcCedjQ2sjp2Iv_zDvj2wpL4i8QLm31vQbbvGw', 'https://play-lh.googleusercontent.com/qyUtwVhobja5i9Ygv-6Mgl7Rlpv81oUQI83noCqklNIzGyOxkPFR3Yzs-MXr-xukS11c', 'https://play-lh.googleusercontent.com/LZcelStyu-l1H41kRZyb0f09JTI5HJ-Z-8m6fYjKt206DKoeM0hEEjhFJEA9_VzScOU', 'https://play-lh.googleusercontent.com/uTlJRqtWq7e0HQpOs22g74EUhGf11sEpB4oN2e9wADT6B1VjqDXKXbDHY20R5FDOGA', 'https://play-lh.googleusercontent.com/PXQocfdieerMFgqPuaUmw6ohOJAaFsd8fzv9oknIGm890fVxRX4YEYRKtMnyuPZaBWHu', 'https://play-lh.googleusercontent.com/Q_HT7sPsbT9eAoCPfb2O0Zrv14utMGTLaaqtLwXjGCXAwHxD-kOpCcB3MLwFg9hpM7J1', 'https://play-lh.googleusercontent.com/A1U9SEX7jyoP6lOCqAxX2Pkc4qCAiQe1eLzPalKjh_crQb9wEnR87k0Sn89IMHnn0vE', 'https://play-lh.googleusercontent.com/j-AY2WUcOLPhLumwJijzFo2VmKyIPz3h-qJBsHoXcplkEW7NE9N3d43jLeO_f4MIRw', 'https://play-lh.googleusercontent.com/RgP_tdFwFKzdbKvkVfiNChH7CCZX4LWQJQ0-6COgIcIA1SD6WlO5clppbyDga5jTXRwn', 'https://play-lh.googleusercontent.com/ncRU0X3oMkFrBT6yd8dDltg3U_WCadTrbUvScA_cK5X6uVmiMF1sgfAGQv7RhLgvmuQ', 'https://play-lh.googleusercontent.com/L8su5IQJbFtIZU17UOkxOu-SRkorCeeaFEhJEmy4hLgWq6Pr-F40_SUOAR6RgLkcP78', 'https://play-lh.googleusercontent.com/i6WjlMEmsj5vdInXfunneDq_LyZbISTgA6NBE5Dtw-rr_-L3Q6BvgpyMIOqIzu7I2g', 'https://play-lh.googleusercontent.com/ZffTqefRxjuP9nYm81BQafiIEsOkMKTfNeD1mLbkKjG3BndfE4wArRE-0MT9O75KrZg', 'https://play-lh.googleusercontent.com/gNmAfPeR_RNNNHUFfildVPVbKxjlJ5jaiFCc3sVmi8hCs6t7sx6oVFSrfto3d-zX4_M']</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/embed/f9SyXUKV-Z8?ps=play&amp;vq=large&amp;rel=0&amp;autohide=1&amp;showinfo=0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/NB_k-LTUw5DZDE26bIxEwR9R9nvn14pS4eqePOVza-VydcH0T8g8lvKkOg_lAbhQqQ</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
         <is>
           <t>PEGI 3</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="inlineStr">
         <is>
           <t>18 nov. 2014</t>
         </is>
       </c>
-      <c r="S2" t="n">
-        <v>44526.45273148148</v>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>['glami.trendy', 'com.answear.app.new', 'de.aboutyou.mobile.app', 'pl.eobuwie.eobuwieapp', 'com.spartoo.app']</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
+      <c r="AQ2" t="n">
+        <v>1637923916</v>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>6.4.0</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>• ghidul cadourilor de Crăciun - de la inspirație la cadouri e un singur pas;
+• CARDURI CADOU Fashion Days - surprinde-i pe cei dragi cu un cadou pe care și-l doresc cu adevărat!
+• noutăți în ROMANIAN CORNER - cele mai noi colecții de la branduri și creatori autohtoni;
+• ai pus ochii pe un produs și îl vrei în garderoba ta cât mai repede? Descoperă cel mai nou feature: livrarea în 6h, disponibil în București și Ilfov;
+• inbox cu notificări pentru reduceri și noutăți;</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>• ghidul cadourilor de Crăciun - de la inspirație la cadouri e un singur pas;&lt;br&gt;• CARDURI CADOU Fashion Days - surprinde-i pe cei dragi cu un cadou pe care și-l doresc cu adevărat!&lt;br&gt;• noutăți în ROMANIAN CORNER - cele mai noi colecții de la branduri și creatori autohtoni;&lt;br&gt;• ai pus ochii pe un produs și îl vrei în garderoba ta cât mai repede? Descoperă cel mai nou feature: livrarea în 6h, disponibil în București și Ilfov;&lt;br&gt;• inbox cu notificări pentru reduceri și noutăți;</t>
+        </is>
+      </c>
+      <c r="AU2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>['glami.trendy', 'com.answear.app.new', 'de.aboutyou.mobile.app', 'pl.eobuwie.eobuwieapp', 'pl.modivo.modivoapp']</t>
+        </is>
+      </c>
+      <c r="AW2" t="inlineStr"/>
+      <c r="AX2" t="inlineStr">
         <is>
           <t>com.fashiondays.android</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AY2" t="inlineStr">
         <is>
           <t>https://play.google.com/store/apps/details?id=com.fashiondays.android&amp;hl=ro&amp;gl=ro</t>
         </is>
       </c>
-      <c r="W2" s="2" t="n">
-        <v>44557.59273303914</v>
+      <c r="AZ2" s="2" t="n">
+        <v>44579.74470775082</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MyVodafone</t>
+          <t>Answear: Fashion Shopping</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5.000.000+</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.4943922</v>
-      </c>
-      <c r="E3" t="n">
-        <v>116383</v>
-      </c>
-      <c r="F3" t="n">
-        <v>35395</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>[63315, 6913, 5544, 6526, 34085]</t>
-        </is>
+          <t>Answear este unul dintre cele mai bune magazine de modă online. Cu Answear vă puteți bucura de acces la cele mai noi colecții de haine, încălțăminte și accesorii ale celor mai renumite branduri internaționale.
+Cele mai recente tendințe și colecții în buzunarul tău - descoperă aplicațiile Answear cu o varietate impresionantă de produse premium și mărci de modă. Answear inspiră, propune cele mai noi tendințe și te asigură că moda poate fi distractivă și îți  poate evidenția stilul într-un mod neconvențional.
+Care sunt avantajele aplicației?
+- reduceri speciale
+- motor de căutare precis
+- realizarea rapidă a comenzilor
+- posibilitatea de a crea propriile ținute
+Peste 400 de branduri sunt acum disponibile direct pe telefonul tău: Nike, Adidas, New Balance, Guess, Calvin Klein, Tommy Hilfiger, Ralph Lauren, Reebok și multe altele.
+Cumpărăturile de pe Answear sunt foarte ușoare. Descărcați aplicația, adăugați produse în coș și vă bucurați de transportul rapid și livrare la domiciliu. Probați ce vă place și puteți returna în 30 de zile produsele care nu vi se potrivesc. Answear este un magazin de încredere la care revii cu drag, mai ales datorită programului de loialitate Answear Club, în care câștigi puncte la fiecare comandă. Cu cât ai mai multe puncte, cu atât cumpărăturile vor fi mai ieftine data viitoare.
+Cele mai importante elemente ale aplicației Answear:
+* Disponibilitatea a peste 400 de branduri într-o singură aplicație
+* Selecție mare de mărci premium
+* Posibilitatea de retur gratuit în termen de 30 de zile
+* Livrare gratuită pentru comenzile de minim 200 RON
+* Transport rapid
+* Answear club, programul de loialitate în care punctele înseamnă achiziții mai ieftine în viitor
+Alege Answear și vezi cum arată cel mai bun magazin de modă cu cele mai la modă mărci și cea mai mare selecție de mărci.
+De ce Answear:
+* Answear este cel mai bun magazin online. Magazin de fashion unde poți alege dintre 400 de mărci de top. Answear este, de asemenea, o moda premium
+*  Mărci dintre care puteți alege: Nike, Adidas, New Balance, Guess, Calvin Klein, Tommy Hilfiger, Ralph Lauren, Reebok
+Cauți inspirație? Urmărește-ne pe Facebook și Instagram!
+https://www.facebook.com/ANSWEARro
+https://www.instagram.com/answear_ro</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Answear este unul dintre cele mai bune magazine de modă online. Cu Answear vă puteți bucura de acces la cele mai noi colecții de haine, încălțăminte și accesorii ale celor mai renumite branduri internaționale.&lt;br&gt;&lt;br&gt;Cele mai recente tendințe și colecții în buzunarul tău - descoperă aplicațiile Answear cu o varietate impresionantă de produse premium și mărci de modă. Answear inspiră, propune cele mai noi tendințe și te asigură că moda poate fi distractivă și îți  poate evidenția stilul într-un mod neconvențional.&lt;br&gt;&lt;br&gt;Care sunt avantajele aplicației?&lt;br&gt;- reduceri speciale&lt;br&gt;- motor de căutare precis&lt;br&gt;- realizarea rapidă a comenzilor&lt;br&gt;- posibilitatea de a crea propriile ținute&lt;br&gt;&lt;br&gt;Peste 400 de branduri sunt acum disponibile direct pe telefonul tău: Nike, Adidas, New Balance, Guess, Calvin Klein, Tommy Hilfiger, Ralph Lauren, Reebok și multe altele.&lt;br&gt;&lt;br&gt;Cumpărăturile de pe Answear sunt foarte ușoare. Descărcați aplicația, adăugați produse în coș și vă bucurați de transportul rapid și livrare la domiciliu. Probați ce vă place și puteți returna în 30 de zile produsele care nu vi se potrivesc. Answear este un magazin de încredere la care revii cu drag, mai ales datorită programului de loialitate Answear Club, în care câștigi puncte la fiecare comandă. Cu cât ai mai multe puncte, cu atât cumpărăturile vor fi mai ieftine data viitoare.&lt;br&gt;&lt;br&gt;Cele mai importante elemente ale aplicației Answear:&lt;br&gt;* Disponibilitatea a peste 400 de branduri într-o singură aplicație&lt;br&gt;* Selecție mare de mărci premium&lt;br&gt;* Posibilitatea de retur gratuit în termen de 30 de zile&lt;br&gt;* Livrare gratuită pentru comenzile de minim 200 RON&lt;br&gt;* Transport rapid&lt;br&gt;* Answear club, programul de loialitate în care punctele înseamnă achiziții mai ieftine în viitor&lt;br&gt;&lt;br&gt;Alege Answear și vezi cum arată cel mai bun magazin de modă cu cele mai la modă mărci și cea mai mare selecție de mărci.&lt;br&gt;&lt;br&gt;De ce Answear:&lt;br&gt;* Answear este cel mai bun magazin online. Magazin de fashion unde poți alege dintre 400 de mărci de top. Answear este, de asemenea, o moda premium&lt;br&gt;*  Mărci dintre care puteți alege: Nike, Adidas, New Balance, Guess, Calvin Klein, Tommy Hilfiger, Ralph Lauren, Reebok&lt;br&gt;&lt;br&gt;Cauți inspirație? Urmărește-ne pe Facebook și Instagram!&lt;br&gt;https://www.facebook.com/ANSWEARro&lt;br&gt;https://www.instagram.com/answear_ro</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Descoperiți achiziții personalizate în aplicația Answear.</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Descoperiți achiziții personalizate în aplicația Answear.</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>500.000+</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>500000</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="b">
+        <v>4.494382</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6657</v>
+      </c>
+      <c r="J3" t="n">
+        <v>413</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>[710, 34, 149, 111, 5653]</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="b">
         <v>1</v>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>RON</t>
         </is>
       </c>
-      <c r="K3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>75M</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
+      <c r="O3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>41M</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
         <is>
           <t>5.0</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Globalworth Tower
-Strada Barbu Vacarescu, nr.201, Sector 2
-Bucureşti, România</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Productivitate</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>PRODUCTIVITY</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>5.0 sau o versiune ulterioară</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Answear.com</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>Answear.com</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>android@wearco.pl</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>https://answear.cz/</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>https://answear.sk/a/ochrana-osobnych-udajov</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>7772146529404772754</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>Cumpărături</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>SHOPPING</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/547qBdSmDrCldQ6txht1glDrrNEogoRbnse2aG4iwR1xfoopUotOWGu0IfXrVYX3aA</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/vM397QbNPbp4x6qXLUKEHGcsWdavx_DKsGrneQFrcKj12IQEREM4zLl_FOqCopEwluQ</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>['https://play-lh.googleusercontent.com/_xD5Pn15-QPJqDyNrqxVjV9NnjZONs-cEmOAa7EkL1akoEfNL2Rt8abP34IK1nzZRwyk', 'https://play-lh.googleusercontent.com/wFZIGI7eb47v1gFo_vOk23koecmSTWTzAVAT7PHrb5sbmRb6r0Dshrdwc9yfuqkDxzQ', 'https://play-lh.googleusercontent.com/NjPuEL8Jfh9SVnOgaXwb22Sg3uscWs4Gcpt_u--w1QEHzx5xYGWiXEAhfnHoX-nWEg', 'https://play-lh.googleusercontent.com/ufkRDsKSsbEomkTuR21p3EngqmT2DyZoExq3kCX_rfcaOWYQkrL7xZwly3NuJXvl0G8', 'https://play-lh.googleusercontent.com/VuvgD2v2cOhbvymctQN3iOZmVEO4Vf0OST3ZgVM9WYA2kyOsl0HLz8vE1mTopkPCgpS8', 'https://play-lh.googleusercontent.com/G5otFSPtTv13IvHqmUvvFx91fYYQ9fY13e15Xj0JM-sIORrtjLSizZSwlIlYmhCMPUg', 'https://play-lh.googleusercontent.com/UJGuuI6kC94RI701PnyYi0DzIlhp8IwIHQ9aiXXdzgQIxH6CmEY6LMhET2rZ7X-4K4pz', 'https://play-lh.googleusercontent.com/FLQPOlrIVZlaTAiQhIuweWH5-yU96CLMlIakhuuM_QNlKFE-M5TBBOfEyuHI7Ur8tx3J', 'https://play-lh.googleusercontent.com/QNRqgHdT4itJ5G5VkvILOvfo3yMGqBzJsA3pM8on5zIxFbN1o4yeQeCVPo8kC_jXhEs', 'https://play-lh.googleusercontent.com/YIWonSLdIN5J9KNSPVSRRtdvHv9u3KOiL8DMakC8p44gGn0b9Hnp8mm-XsxkWi0SRA', 'https://play-lh.googleusercontent.com/CbeG8J1t5z8dG8u1M3kBkMgUl2SFtkWQQuga1PpZooawtJ_lOtUSKuT6bmaPf4B8GNvo', 'https://play-lh.googleusercontent.com/Emo228K_SYCsJ_tmiCnNyBDruhq_JukAjfh1gcNkGwg04zZA76N8-y6xP6X-8nFGLg', 'https://play-lh.googleusercontent.com/nXLQLKNB-sAiCU66jxS20dD3AsI5kSW1_6oEo4EstEJbUGu5TMVpBx73cLRlBKeTkA', 'https://play-lh.googleusercontent.com/bTEBBvSeD4iO-GmtRRTx1bKoDwAHOh2pb0EQMHv1WZPrIfcvxJ1fg0YZOeNro6qi1uc', 'https://play-lh.googleusercontent.com/96NpLxjlzZnAzFoZm0UFcz8kFe-gkeM0jvSMOZu-38pPh4XsFJ0j_gINRX9iHFv-AxM', 'https://play-lh.googleusercontent.com/1kfmoPu-vcX0hCrZurBKP6Ozy8bNrH1YgSHeHYE_RuqitDkX7pBjyrV5CUJzqCGTf_Ci', 'https://play-lh.googleusercontent.com/L-BMB-9iKIb9JBw0ledZobPth7Gxwf_8qJ_BLjGDdnFsVzOdJbwiC1pT8nN9-0YyI60', 'https://play-lh.googleusercontent.com/OICGAZ9kaLAz639HPsrDK9sHgoLl_iWRHdZQESrht2z5WA2wqd3QvfaPR2scXdIb4ik', 'https://play-lh.googleusercontent.com/Avzf92F6wnAqex__gYT62ALlyHJgtgw542G0lf7ITVe-H6SPUlcyl5D8KeaKeUeGe4w', 'https://play-lh.googleusercontent.com/XM9GdA-qW10hu77y0cmVHHlsLHONdHQ2mH0dGJbmxq5YVhXxZokuxaMgEPxHjZGO6Oc', 'https://play-lh.googleusercontent.com/E7_jWjpok95IS6VenshAwPU1CSJ4QLtMPxRWXKfyf7cOwvdHG9WHqA4A76Wg0GdSVuOL', 'https://play-lh.googleusercontent.com/9gEBmVDVM-CfmtgsFSBjokFE6n-vA5qKAmwSlpqIGX873RinQx3p_ykZKe7RuKU8xuJT', 'https://play-lh.googleusercontent.com/TOFm1SjLA7FJWMeKnIHRHe07izF-UwX1tiBeUcW4PhlZ9YJl6SVF6u9uj8P_icdwvw', 'https://play-lh.googleusercontent.com/uJtmpShvoesC4EXlbOKP3J3uNF6HC-84s8qYs9Ol4HmNyiyEtzsOw-_E5zeFQ2DX-nrt']</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/embed/2hFTvXhjaJs?ps=play&amp;vq=large&amp;rel=0&amp;autohide=1&amp;showinfo=0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/vM397QbNPbp4x6qXLUKEHGcsWdavx_DKsGrneQFrcKj12IQEREM4zLl_FOqCopEwluQ</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
         <is>
           <t>PEGI 3</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>13 sept. 2011</t>
-        </is>
-      </c>
-      <c r="S3" t="n">
-        <v>44551.50511574074</v>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>['ro.vodafone.salvamontapp', 'ro.orange.yoxo', 'com.tapptitude.amparcat', 'ro.orange.omoney', 'com.undoiclient']</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>ro.vodafone.mcare.android</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>https://play.google.com/store/apps/details?id=ro.vodafone.mcare.android&amp;hl=ro&amp;gl=ro</t>
-        </is>
-      </c>
-      <c r="W3" s="2" t="n">
-        <v>44557.59273303914</v>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>20 apr. 2020</t>
+        </is>
+      </c>
+      <c r="AQ3" t="n">
+        <v>1639576212</v>
+      </c>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t>2.4.1</t>
+        </is>
+      </c>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>Îți mulțumim că folosești aplicația Answear! Această actualizare corectează câteva erori și adaugă o serie de îmbunătățiri.
+Bucură-te de experiența aplicației Answear!</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>Îți mulțumim că folosești aplicația Answear! Această actualizare corectează câteva erori și adaugă o serie de îmbunătățiri.&lt;br&gt;Bucură-te de experiența aplicației Answear!</t>
+        </is>
+      </c>
+      <c r="AU3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="inlineStr">
+        <is>
+          <t>['glami.trendy', 'com.fashiondays.android', 'pl.eobuwie.eobuwieapp', 'de.aboutyou.mobile.app', 'pl.modivo.modivoapp']</t>
+        </is>
+      </c>
+      <c r="AW3" t="inlineStr"/>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>com.answear.app.new</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>https://play.google.com/store/apps/details?id=com.answear.app.new&amp;hl=ro&amp;gl=ro</t>
+        </is>
+      </c>
+      <c r="AZ3" s="2" t="n">
+        <v>44579.74470775082</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ABOUT YOU shop online de modă</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Găsește experiența personalizată de shopping în aplicația gratuită ABOUT YOU și descoperă &lt;em&gt; o selecție largă de branduri &lt;/em&gt;. Ai mereu &lt;em&gt; livrare &amp; retur gratuite&lt;/em&gt; și poți plăti cu&lt;em&gt; plata ramburs &lt;/em&gt;. 
+În plus, faci cumpărături peste tot și oricând. Mai profiți și de &lt;em&gt;promoții și vouchere cadou&lt;/em&gt;, și ai mereu lista ta de articole favorite alături de tine. Ce mai aștepți?
+★  Inspiră-te din cele mai noi tendințe în modă direct de la brandurile tale favorite în secțiunea Descoperă
+★  În secțiunea “Descoperă” găsești cele mai recente stiluri, promoții, precum și noutățile vedetelor care te interesează
+★ Urmărește noutățile în materie de stiluri și trenduri puse la dispoziție de brandurile tale favorite și fii întotdeauna la curent cu ultimele informații în materie de fashion
+★ Ești la un click distanță de stilurile, care te avantajează
+★ Primește vouchere de reduceri și promoții direct pe telefonul tău
+★ Descoperă cele mai noi tendințe în modă pentru femeii și bărbați dintr-o selecție foarte variată de branduri de top
+★ Nu rata niciodată cele mai noi colecții de la branduri de top
+★ Cumpără flexibil. Ai coșul de cumpărături sincronizat pe toate device-urile. 
+&lt;h3&gt; Inspirație doar pentru tine&lt;/h3&gt;
+Îți prezentăm stilurile brandurilor de top și ale vedetelor care te inspiră. Aruncă o privire peste alegerile vestimentare ale &lt;strong&gt;fashion icon-urilor&lt;/strong&gt; de moment și îmbogățește-ți garderoba cu piesele favorite ale vedetelor. Storyurille noastre îți dau idei despre combinații vestimentare reușite. 
+&lt;h3&gt; Experiență practică și comodă de shopping online &lt;/h3&gt;
+Atunci când faci cumpărături online de la ABOUT YOU te bucuri de o varietate mare de branduri, &lt;strong&gt;reduceri la articolele tale favorite&lt;/strong&gt; și multe promoții. Beneficiazi de &lt;strong&gt;livrare&lt;/strong&gt; rapidă și &lt;strong&gt;gratuită&lt;/strong&gt; și descoperi ultimele trenduri în fashion chiar în confortul casei tale. Dacă dorești să returnezi un articol, îți punem la dispoziție &lt;strong&gt;serviciul nostru gratuit de retur.&lt;/strong&gt;
+&lt;h3&gt;Te inspirăm prin calitate și sortimentul mare de produse&lt;/h3&gt;
+Toate superofertele de pe ABOUT YOU te vor surprinde prin calitatea materialelor. Vrem să de bucuri mulți ani la rând de noile pulovere, jachete, genți, rochii sau sneakerși, păstrându-ți stilul inconfundabil pentru o perioadă îndelungată. De aceea, calitatea produselor, cât și cea a serviciilor stau la noi pe primul loc. Pe lângă acestea, magazinul online ABOUT YOU îți oferă &lt;strong&gt;o gamă variată de produse&lt;/strong&gt;. Îți oferim descriere detaliată a produselor din categoriile: &lt;strong&gt;haine de femei și bărbați.&lt;/strong&gt; La noi găsești garantat brandurile tale favorite și articole de la mărci ca Nike, Adidas, Only, Calvin Klein Jeans, Naketano și Tommy Hilfiger.
+Urmărește-ne pe:
+https://www.facebook.com/aboutyouro
+https://instagram.com/aboutyou_ro
+https://instagram.com/aboutyou_men
+Îți place aplicația ABOUT YOU? Recomandă-ne în Play Store. Citim toate mesajele și review-urile primite, datorită dorinței noastre constante de a îți oferi o experiență de shopping cât mai plăcută.
+Permisiuni aplicație:
+Confidențialitatea ta este foarte importantă pentru noi! Dorim să fim cât mai transparenți în relația cu clienții noștri și, de aceea, dorim să îți explicăm modul și scopul în care sunt utilizate permisiunile aplicației ABOUT YOU.
+Fotografii/mijloace media/date: Ne sunt necesare permisiunile spre exemplu pentru a putea afișa fotografiile deja încărcate ale produselor. Nu avem acces la datele tale personale.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Găsește experiența personalizată de shopping în aplicația gratuită ABOUT YOU și descoperă &lt;em&gt; o selecție largă de branduri &lt;/em&gt;. Ai mereu &lt;em&gt; livrare &amp;amp; retur gratuite&lt;/em&gt; și poți plăti cu&lt;em&gt; plata ramburs &lt;/em&gt;. &lt;br&gt;&lt;br&gt;În plus, faci cumpărături peste tot și oricând. Mai profiți și de &lt;em&gt;promoții și vouchere cadou&lt;/em&gt;, și ai mereu lista ta de articole favorite alături de tine. Ce mai aștepți?&lt;br&gt;&lt;br&gt;★  Inspiră-te din cele mai noi tendințe în modă direct de la brandurile tale favorite în secțiunea Descoperă&lt;br&gt;★  În secțiunea “Descoperă” găsești cele mai recente stiluri, promoții, precum și noutățile vedetelor care te interesează&lt;br&gt;★ Urmărește noutățile în materie de stiluri și trenduri puse la dispoziție de brandurile tale favorite și fii întotdeauna la curent cu ultimele informații în materie de fashion&lt;br&gt;★ Ești la un click distanță de stilurile, care te avantajează&lt;br&gt;★ Primește vouchere de reduceri și promoții direct pe telefonul tău&lt;br&gt;★ Descoperă cele mai noi tendințe în modă pentru femeii și bărbați dintr-o selecție foarte variată de branduri de top&lt;br&gt;★ Nu rata niciodată cele mai noi colecții de la branduri de top&lt;br&gt;★ Cumpără flexibil. Ai coșul de cumpărături sincronizat pe toate device-urile. &lt;br&gt;&lt;br&gt;&lt;h3&gt; Inspirație doar pentru tine&lt;/h3&gt;&lt;br&gt;Îți prezentăm stilurile brandurilor de top și ale vedetelor care te inspiră. Aruncă o privire peste alegerile vestimentare ale &lt;strong&gt;fashion icon-urilor&lt;/strong&gt; de moment și îmbogățește-ți garderoba cu piesele favorite ale vedetelor. Storyurille noastre îți dau idei despre combinații vestimentare reușite. &lt;br&gt;&lt;br&gt;&lt;h3&gt; Experiență practică și comodă de shopping online &lt;/h3&gt;&lt;br&gt;Atunci când faci cumpărături online de la ABOUT YOU te bucuri de o varietate mare de branduri, &lt;strong&gt;reduceri la articolele tale favorite&lt;/strong&gt; și multe promoții. Beneficiazi de &lt;strong&gt;livrare&lt;/strong&gt; rapidă și &lt;strong&gt;gratuită&lt;/strong&gt; și descoperi ultimele trenduri în fashion chiar în confortul casei tale. Dacă dorești să returnezi un articol, îți punem la dispoziție &lt;strong&gt;serviciul nostru gratuit de retur.&lt;/strong&gt;&lt;br&gt;&lt;br&gt;&lt;h3&gt;Te inspirăm prin calitate și sortimentul mare de produse&lt;/h3&gt;&lt;br&gt;Toate superofertele de pe ABOUT YOU te vor surprinde prin calitatea materialelor. Vrem să de bucuri mulți ani la rând de noile pulovere, jachete, genți, rochii sau sneakerși, păstrându-ți stilul inconfundabil pentru o perioadă îndelungată. De aceea, calitatea produselor, cât și cea a serviciilor stau la noi pe primul loc. Pe lângă acestea, magazinul online ABOUT YOU îți oferă &lt;strong&gt;o gamă variată de produse&lt;/strong&gt;. Îți oferim descriere detaliată a produselor din categoriile: &lt;strong&gt;haine de femei și bărbați.&lt;/strong&gt; La noi găsești garantat brandurile tale favorite și articole de la mărci ca Nike, Adidas, Only, Calvin Klein Jeans, Naketano și Tommy Hilfiger.&lt;br&gt;&lt;br&gt;Urmărește-ne pe:&lt;br&gt;https://www.facebook.com/aboutyouro&lt;br&gt;https://instagram.com/aboutyou_ro&lt;br&gt;https://instagram.com/aboutyou_men&lt;br&gt;&lt;br&gt;&lt;br&gt;Îți place aplicația ABOUT YOU? Recomandă-ne în Play Store. Citim toate mesajele și review-urile primite, datorită dorinței noastre constante de a îți oferi o experiență de shopping cât mai plăcută.&lt;br&gt;&lt;br&gt;Permisiuni aplicație:&lt;br&gt;Confidențialitatea ta este foarte importantă pentru noi! Dorim să fim cât mai transparenți în relația cu clienții noștri și, de aceea, dorim să îți explicăm modul și scopul în care sunt utilizate permisiunile aplicației ABOUT YOU.&lt;br&gt;Fotografii/mijloace media/date: Ne sunt necesare permisiunile spre exemplu pentru a putea afișa fotografiile deja încărcate ale produselor. Nu avem acces la datele tale personale.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Cumpără tendințe vestimentare noi cu livrare și retur gratuite</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Cumpără tendințe vestimentare noi cu livrare și retur gratuite</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10.000.000+</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4.6151576</v>
+      </c>
+      <c r="I4" t="n">
+        <v>81725</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3007</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>[6352, 482, 1125, 2332, 71434]</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>RON</t>
+        </is>
+      </c>
+      <c r="O4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>51M</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>5.0 sau o versiune ulterioară</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>ABOUT YOU SE &amp; Co. KG</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>7864891709799062872</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>app-feedback@aboutyou.de</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>https://www.aboutyou.de</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Domstr. 10
+20095 Hamburg
+Deutschland</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>https://www.aboutyou.de/datenschutz</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>7864891709799062872</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>Cumpărături</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>SHOPPING</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/cubIK4wSiJ0PUZ1J28kGQYxJYGp5mT1QMV-_vIZP_hJXiRcMLV3fXDQUDnGikMxLxw</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/s45E4w7cz7f0m1zxqie8WCfwY9ser-oLCjUuMV7i0pCJJhCzuXngo1TCTDHyuhZ8ackf</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>['https://play-lh.googleusercontent.com/DtWlw8V2gE6qscDCIRA4qWmIPJRvgPXLBFXBkbvXG20a4i5ckGADmiu2XYxVv6XUk2E', 'https://play-lh.googleusercontent.com/bd5OM7pLMC7Cg4MSXWhnYg1diamo9EDuTcpHZ3t9k3zUfy8PdLE_iT9edvckRc46wpk', 'https://play-lh.googleusercontent.com/GlbtpIjZyMyrhiVIfc4f_ei3cemHxhgGxpA770__Q7GKNZYvaBWz3aKzfLO6kw1YhKk', 'https://play-lh.googleusercontent.com/_tG78vz8gH_gMLaxdm2AA5suAgAwiBRYCzfvvizpJplYvitFayCfjv7YmWEckQ8Vp_w', 'https://play-lh.googleusercontent.com/tnObOC9xZs9FHLsMzqAxWrzI0JONm8vTVXYeZgBBUSKu6c7kNQmSPhouiiUuB_Yao4s', 'https://play-lh.googleusercontent.com/GOuzOh2sr8knq6SryGHKLojshJIr_hHZR7R0FReppdXclop3A427myTaAoN35kNeGOw', 'https://play-lh.googleusercontent.com/-HJVaUtYQ4DR0ukl-nUbzfpKJDYKjPndGmlzs0aGCfLZk3I4uF_JsoU3n4mG-eSddwc', 'https://play-lh.googleusercontent.com/5raGtnjiJpbqFu1gJFPFagCrscONsoUATTCEEoh4DzY8fXtFZQ2eURYmMQey58BcxCQ']</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/embed/Qd6SJUsK9i4?ps=play&amp;vq=large&amp;rel=0&amp;autohide=1&amp;showinfo=0</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>https://play-lh.googleusercontent.com/s45E4w7cz7f0m1zxqie8WCfwY9ser-oLCjUuMV7i0pCJJhCzuXngo1TCTDHyuhZ8ackf</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>PEGI 3</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>13 iun. 2019</t>
+        </is>
+      </c>
+      <c r="AQ4" t="n">
+        <v>1642145515</v>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>6.41.0</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>Această versiune prezintă o serie de erori remediate, funcții noi și diferite îmbunătățiri în ceea ce privește experiența de utilizare.
+Distracție plăcută la cumpărături!</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>Această versiune prezintă o serie de erori remediate, funcții noi și diferite îmbunătățiri în ceea ce privește experiența de utilizare.&lt;br&gt;Distracție plăcută la cumpărături!</t>
+        </is>
+      </c>
+      <c r="AU4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>['pl.eobuwie.eobuwieapp', 'glami.trendy', 'fr.vestiairecollective', 'de.pilot.newyorker.android']</t>
+        </is>
+      </c>
+      <c r="AW4" t="inlineStr"/>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>de.aboutyou.mobile.app</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>https://play.google.com/store/apps/details?id=de.aboutyou.mobile.app&amp;hl=ro&amp;gl=ro</t>
+        </is>
+      </c>
+      <c r="AZ4" s="2" t="n">
+        <v>44579.74470775082</v>
       </c>
     </row>
   </sheetData>
